--- a/9_kaltes_Nahwaermenetz/9_1_2_Kosten/9_1_2_KostenalleV.xlsx
+++ b/9_kaltes_Nahwaermenetz/9_1_2_Kosten/9_1_2_KostenalleV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fraunhofer-my.sharepoint.com/personal/lara_josephine_barnic_iee_fraunhofer_de/Documents/A_Bearbeitung/9_Parameterstudie_REP/9_kaltes_Nahwaermenetz/9_1_2_Kosten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1661" documentId="11_AD4DB114E441178AC67DF4879E90C19A693EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C046B7A-463B-485C-884F-A007067E2C50}"/>
+  <xr:revisionPtr revIDLastSave="1666" documentId="11_AD4DB114E441178AC67DF4879E90C19A693EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70DF06CD-3990-4E63-8E68-E8D4B8AC3715}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1113,7 +1113,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6650095-320F-445E-AD6B-6E97E544A96F}" type="CELLRANGE">
+                    <a:fld id="{DB0040E5-DC67-4379-B0DA-4C91272C746D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1152,7 +1152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB05F824-F9BB-4309-9869-0FB1AB7DCD49}" type="CELLRANGE">
+                    <a:fld id="{B997667C-BC62-4665-B15B-EB23B1F0AE31}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1185,7 +1185,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A077AE21-3F14-4AE1-86AE-CB1BC8AC3635}" type="CELLRANGE">
+                    <a:fld id="{533E9BF8-6849-4C38-B909-D53F6A3BC561}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1219,7 +1219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7247A47-1EF6-40C5-9B7A-CC2B270DCA6C}" type="CELLRANGE">
+                    <a:fld id="{6B1A2C5C-CD4E-4D8E-BDDA-E925746804E8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1253,7 +1253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E545301-C874-4500-A710-FFC8AD404DD6}" type="CELLRANGE">
+                    <a:fld id="{79E6A3EF-0577-4B49-A799-A8AAEB9BAD4F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1338,10 +1338,10 @@
                   <c:v>2.1404929913135451</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2.1567316383804291</c:v>
+                  <c:v>2.2474856183804293</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2.1491305344827358</c:v>
+                  <c:v>2.2267961944827359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,7 +1415,7 @@
         <c:axId val="1115809888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.25"/>
+          <c:max val="2.5"/>
           <c:min val="1.7000000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1752,7 +1752,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E35D3F4B-90F1-4924-AD28-1D9E0BDB2063}" type="CELLRANGE">
+                    <a:fld id="{622C16C7-CE9E-4AD6-A6FA-B09FE49C618E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1785,7 +1785,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD4ABF61-10FD-4AEB-A326-F5C72D669EDF}" type="CELLRANGE">
+                    <a:fld id="{2513A602-AC6B-41C7-A03E-286CD135AC76}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1819,7 +1819,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D605C780-5F53-41BB-AEC8-314D1BFA7E2A}" type="CELLRANGE">
+                    <a:fld id="{35AA4A5E-B5EF-4AD8-ABDF-5592A417AB89}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1853,7 +1853,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D729AE2A-0A86-4BAD-AB74-812C9D16AD33}" type="CELLRANGE">
+                    <a:fld id="{C97F066A-88CD-4374-AE69-8C261522A092}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1887,7 +1887,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B114386-6856-47CC-B983-C865D9F87908}" type="CELLRANGE">
+                    <a:fld id="{49AD9CE9-7955-4325-AB15-25E98941D7AF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1972,10 +1972,10 @@
                   <c:v>2.1404929913135451</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2.1567316383804291</c:v>
+                  <c:v>2.2474856183804293</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>2.1491305344827358</c:v>
+                  <c:v>2.2267961944827359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5863,28 +5863,28 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Netzstrom_PV_Strom"/>
+      <sheetName val="Zusammenfassung"/>
+      <sheetName val="Ergebnisse_Netzstrombedarfe"/>
+      <sheetName val="Allgemeine Parameter"/>
+      <sheetName val="Kostenposten_8.2.2"/>
+      <sheetName val="dezentral"/>
+      <sheetName val="kalte NW_2_5"/>
+      <sheetName val="NT-WN"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="B4">
-            <v>66069.878811235394</v>
-          </cell>
-          <cell r="C4">
-            <v>49237.671936835155</v>
-          </cell>
-          <cell r="E4">
-            <v>41164.404932023172</v>
-          </cell>
-          <cell r="F4">
-            <v>58650.811247578851</v>
-          </cell>
-          <cell r="G4">
-            <v>46208.273980854181</v>
+        <row r="5">
+          <cell r="K5">
+            <v>2.2474856183804293</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5902,14 +5902,14 @@
       <sheetName val="Allgemeine Parameter"/>
       <sheetName val="Kostenposten_8.2.2"/>
       <sheetName val="dezentral"/>
-      <sheetName val="kalte NW_2_5"/>
+      <sheetName val="kalte NW"/>
       <sheetName val="NT-WN"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="5">
           <cell r="K5">
-            <v>2.1567316383804291</v>
+            <v>2.2267961944827359</v>
           </cell>
         </row>
       </sheetData>
@@ -5943,7 +5943,7 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="K5">
-            <v>2.1491305344827358</v>
+            <v>2.2018208281342488</v>
           </cell>
         </row>
       </sheetData>
@@ -5965,28 +5965,28 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Zusammenfassung"/>
-      <sheetName val="Ergebnisse_Netzstrombedarfe"/>
-      <sheetName val="Allgemeine Parameter"/>
-      <sheetName val="Kostenposten_8.2.2"/>
-      <sheetName val="dezentral"/>
-      <sheetName val="kalte NW"/>
-      <sheetName val="NT-WN"/>
+      <sheetName val="Netzstrom_PV_Strom"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="5">
-          <cell r="K5">
-            <v>2.141610048134249</v>
+        <row r="4">
+          <cell r="B4">
+            <v>66069.878811235394</v>
+          </cell>
+          <cell r="C4">
+            <v>49237.671936835155</v>
+          </cell>
+          <cell r="E4">
+            <v>41164.404932023172</v>
+          </cell>
+          <cell r="F4">
+            <v>58650.811247578851</v>
+          </cell>
+          <cell r="G4">
+            <v>46208.273980854181</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6257,8 +6257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5395E545-C7E4-4937-89EC-C03939104281}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6408,8 +6408,8 @@
         <v>129</v>
       </c>
       <c r="K6" s="42">
-        <f>[2]Zusammenfassung!$K$5</f>
-        <v>2.1567316383804291</v>
+        <f>[1]Zusammenfassung!$K$5</f>
+        <v>2.2474856183804293</v>
       </c>
       <c r="L6" s="42">
         <v>241</v>
@@ -6438,8 +6438,8 @@
         <v>130</v>
       </c>
       <c r="K7" s="42">
-        <f>[3]Zusammenfassung!$K$5</f>
-        <v>2.1491305344827358</v>
+        <f>[2]Zusammenfassung!$K$5</f>
+        <v>2.2267961944827359</v>
       </c>
       <c r="L7" s="42">
         <v>235</v>
@@ -6466,8 +6466,8 @@
         <v>131</v>
       </c>
       <c r="K8" s="42">
-        <f>[4]Zusammenfassung!$K$5</f>
-        <v>2.141610048134249</v>
+        <f>[3]Zusammenfassung!$K$5</f>
+        <v>2.2018208281342488</v>
       </c>
       <c r="L8" s="42">
         <v>228.76</v>
@@ -6720,7 +6720,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="38">
-        <f>[1]Netzstrom_PV_Strom!$B$4</f>
+        <f>[4]Netzstrom_PV_Strom!$B$4</f>
         <v>66069.878811235394</v>
       </c>
       <c r="E14" s="38">
@@ -6728,22 +6728,22 @@
         <v>146736.92000000001</v>
       </c>
       <c r="F14" s="38">
-        <f>[1]Netzstrom_PV_Strom!$F$4</f>
+        <f>[4]Netzstrom_PV_Strom!$F$4</f>
         <v>58650.811247578851</v>
       </c>
       <c r="I14" t="s">
         <v>59</v>
       </c>
       <c r="K14" s="38">
-        <f>[1]Netzstrom_PV_Strom!$C$4</f>
+        <f>[4]Netzstrom_PV_Strom!$C$4</f>
         <v>49237.671936835155</v>
       </c>
       <c r="L14" s="38">
-        <f>[1]Netzstrom_PV_Strom!$E$4</f>
+        <f>[4]Netzstrom_PV_Strom!$E$4</f>
         <v>41164.404932023172</v>
       </c>
       <c r="M14" s="38">
-        <f>[1]Netzstrom_PV_Strom!$G$4</f>
+        <f>[4]Netzstrom_PV_Strom!$G$4</f>
         <v>46208.273980854181</v>
       </c>
     </row>
@@ -8987,8 +8987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE05C22-774F-487B-8758-21CEEC91D1E4}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
